--- a/data/D3_Dotacion.xlsx
+++ b/data/D3_Dotacion.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacquespolette/Documents/Programacion/YNK_Modelo EBITDA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrotorres/Downloads/YNK_Store Planner/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F160B0B6-BABE-CA4E-8918-03DB6174C2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7ED685-4C1B-FD43-BA75-AACE252BC6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="41120" windowHeight="23980" activeTab="1" xr2:uid="{D946907D-D78F-1946-809F-48E48D5DEF92}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="28800" windowHeight="17380" xr2:uid="{D946907D-D78F-1946-809F-48E48D5DEF92}"/>
   </bookViews>
   <sheets>
     <sheet name="Dotacion" sheetId="1" r:id="rId1"/>
     <sheet name="Costos" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dotacion!$A$1:$K$163</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="194">
   <si>
     <t>SUCURSAL</t>
   </si>
@@ -72,9 +75,6 @@
     <t>VISUAL</t>
   </si>
   <si>
-    <t>7302-Antihuman Costanera Center</t>
-  </si>
-  <si>
     <t>1000-Belsport Ahumada</t>
   </si>
   <si>
@@ -168,9 +168,6 @@
     <t>1046-Belsport Iquique</t>
   </si>
   <si>
-    <t>1057-Belsport Outlet La Fabrica</t>
-  </si>
-  <si>
     <t>1017-Belsport La Serena</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>1005-Belsport San Bernardo</t>
   </si>
   <si>
-    <t>1056-Belsport Vivo San Fernando</t>
-  </si>
-  <si>
     <t>1035-Belsport San Pablo</t>
   </si>
   <si>
@@ -384,9 +378,6 @@
     <t>6106-Locker San Pedro</t>
   </si>
   <si>
-    <t>B059-Bamers Alto Las Condes II</t>
-  </si>
-  <si>
     <t>B004-Bamers Plaza Antofagasta</t>
   </si>
   <si>
@@ -402,9 +393,6 @@
     <t>B052-Bamers Coquimbo</t>
   </si>
   <si>
-    <t>B055-Bamers Costanera Center II</t>
-  </si>
-  <si>
     <t>B050-Bamers Curico II</t>
   </si>
   <si>
@@ -420,12 +408,6 @@
     <t>B058-Bamers Florida Center II</t>
   </si>
   <si>
-    <t>B054-Bamers Mall Plaza La Serena II</t>
-  </si>
-  <si>
-    <t>B012-Bamers Mall Center Concepcion</t>
-  </si>
-  <si>
     <t>B048-Bamers Parque Arauco II</t>
   </si>
   <si>
@@ -450,9 +432,6 @@
     <t>B057-Bamers Puerto Varas II</t>
   </si>
   <si>
-    <t>B003-Bamers Open Plaza Rancagua</t>
-  </si>
-  <si>
     <t>B056-Bamers Rosas</t>
   </si>
   <si>
@@ -486,9 +465,6 @@
     <t>E002-Oakley El Trebol</t>
   </si>
   <si>
-    <t>JO01-JOIA MUT</t>
-  </si>
-  <si>
     <t>8027-Aufbau Alameda</t>
   </si>
   <si>
@@ -598,6 +574,54 @@
   </si>
   <si>
     <t>Anfitrión</t>
+  </si>
+  <si>
+    <t>7302-Antihuman Costanera Cente</t>
+  </si>
+  <si>
+    <t>1057-Belsport Outlet La Fabric</t>
+  </si>
+  <si>
+    <t>1056-Belsport Vivo San Fernand</t>
+  </si>
+  <si>
+    <t>B016-Bamers Alto Las Condes</t>
+  </si>
+  <si>
+    <t>B055-Bamers Costanera Center I</t>
+  </si>
+  <si>
+    <t>B054-Bamers Mall Plaza La Sere</t>
+  </si>
+  <si>
+    <t>B012-Bamers Mall Center Concep</t>
+  </si>
+  <si>
+    <t>B003-Bamers Open Plaza Rancagu</t>
+  </si>
+  <si>
+    <t>A006-JOIA MUT</t>
+  </si>
+  <si>
+    <t>7502-Hoka Marina</t>
+  </si>
+  <si>
+    <t>1080-Belsport Puerto Montt II</t>
+  </si>
+  <si>
+    <t>P-Bamers X</t>
+  </si>
+  <si>
+    <t>P-Bamers Y</t>
+  </si>
+  <si>
+    <t>P-Apple Puerto Varas</t>
+  </si>
+  <si>
+    <t>P-Hoka Parque Arauco</t>
+  </si>
+  <si>
+    <t>P-Drops Parque Arauco</t>
   </si>
 </sst>
 </file>
@@ -608,7 +632,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -628,6 +652,12 @@
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -666,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -696,6 +726,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,13 +1061,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0021B665-99F9-A44C-95B2-71BFAB5F1BCE}">
-  <dimension ref="A1:K158"/>
+  <dimension ref="A1:K168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K158"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="16.6640625" style="3" customWidth="1"/>
@@ -1079,7 +1111,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -1114,7 +1146,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -1149,7 +1181,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
@@ -1184,7 +1216,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="10">
         <v>1</v>
@@ -1219,7 +1251,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="10">
         <v>0</v>
@@ -1254,7 +1286,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="10">
         <v>1</v>
@@ -1289,7 +1321,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="10">
         <v>1</v>
@@ -1324,7 +1356,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="10">
         <v>1</v>
@@ -1359,7 +1391,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="10">
         <v>1</v>
@@ -1394,7 +1426,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="10">
         <v>1</v>
@@ -1429,7 +1461,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="10">
         <v>1</v>
@@ -1464,7 +1496,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="10">
         <v>1</v>
@@ -1499,7 +1531,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="10">
         <v>1</v>
@@ -1534,7 +1566,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="10">
         <v>1</v>
@@ -1569,7 +1601,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="10">
         <v>1</v>
@@ -1604,7 +1636,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="10">
         <v>1</v>
@@ -1639,7 +1671,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="10">
         <v>1</v>
@@ -1674,7 +1706,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="10">
         <v>1</v>
@@ -1709,7 +1741,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="10">
         <v>1</v>
@@ -1744,7 +1776,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="10">
         <v>1</v>
@@ -1779,7 +1811,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="10">
         <v>1</v>
@@ -1814,7 +1846,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="10">
         <v>1</v>
@@ -1849,7 +1881,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="10">
         <v>1</v>
@@ -1884,7 +1916,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="10">
         <v>1</v>
@@ -1919,7 +1951,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="10">
         <v>1</v>
@@ -1954,7 +1986,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="10">
         <v>1</v>
@@ -1989,7 +2021,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="10">
         <v>1</v>
@@ -2024,7 +2056,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="10">
         <v>1</v>
@@ -2059,7 +2091,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="10">
         <v>1</v>
@@ -2094,7 +2126,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="10">
         <v>1</v>
@@ -2129,7 +2161,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="10">
         <v>1</v>
@@ -2164,7 +2196,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="10">
         <v>1</v>
@@ -2199,7 +2231,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="B34" s="10">
         <v>1</v>
@@ -2234,7 +2266,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" s="10">
         <v>1</v>
@@ -2269,7 +2301,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36" s="10">
         <v>1</v>
@@ -2304,7 +2336,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37" s="10">
         <v>1</v>
@@ -2339,7 +2371,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38" s="10">
         <v>1</v>
@@ -2374,7 +2406,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B39" s="10">
         <v>1</v>
@@ -2409,7 +2441,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" s="10">
         <v>1</v>
@@ -2444,7 +2476,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B41" s="10">
         <v>1</v>
@@ -2479,7 +2511,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B42" s="10">
         <v>1</v>
@@ -2514,7 +2546,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B43" s="10">
         <v>1</v>
@@ -2549,7 +2581,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B44" s="10">
         <v>1</v>
@@ -2584,7 +2616,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B45" s="10">
         <v>0</v>
@@ -2619,7 +2651,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B46" s="10">
         <v>1</v>
@@ -2654,7 +2686,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B47" s="10">
         <v>1</v>
@@ -2689,7 +2721,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B48" s="10">
         <v>1</v>
@@ -2724,7 +2756,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B49" s="10">
         <v>1</v>
@@ -2759,7 +2791,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B50" s="10">
         <v>1</v>
@@ -2794,7 +2826,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B51" s="10">
         <v>1</v>
@@ -2829,7 +2861,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B52" s="10">
         <v>1</v>
@@ -2864,7 +2896,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B53" s="10">
         <v>1</v>
@@ -2899,7 +2931,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B54" s="10">
         <v>2</v>
@@ -2934,7 +2966,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B55" s="10">
         <v>1</v>
@@ -2969,7 +3001,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B56" s="10">
         <v>1</v>
@@ -3004,7 +3036,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B57" s="10">
         <v>1</v>
@@ -3039,7 +3071,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="B58" s="10">
         <v>1</v>
@@ -3074,7 +3106,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B59" s="10">
         <v>1</v>
@@ -3109,7 +3141,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B60" s="10">
         <v>1</v>
@@ -3144,7 +3176,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B61" s="10">
         <v>1</v>
@@ -3179,7 +3211,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B62" s="10">
         <v>1</v>
@@ -3214,7 +3246,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B63" s="10">
         <v>1</v>
@@ -3249,7 +3281,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B64" s="10">
         <v>1</v>
@@ -3284,7 +3316,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B65" s="10">
         <v>1</v>
@@ -3319,7 +3351,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B66" s="10">
         <v>1</v>
@@ -3354,7 +3386,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B67" s="10">
         <v>1</v>
@@ -3389,7 +3421,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B68" s="10">
         <v>1</v>
@@ -3424,7 +3456,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B69" s="10">
         <v>1</v>
@@ -3459,7 +3491,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B70" s="10">
         <v>1</v>
@@ -3494,7 +3526,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B71" s="10">
         <v>1</v>
@@ -3529,7 +3561,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B72" s="10">
         <v>1</v>
@@ -3564,7 +3596,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B73" s="10">
         <v>1</v>
@@ -3599,7 +3631,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B74" s="10">
         <v>0</v>
@@ -3634,7 +3666,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B75" s="10">
         <v>1</v>
@@ -3669,7 +3701,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B76" s="10">
         <v>0</v>
@@ -3704,7 +3736,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B77" s="10">
         <v>3</v>
@@ -3739,7 +3771,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B78" s="10">
         <v>1</v>
@@ -3774,7 +3806,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B79" s="10">
         <v>1</v>
@@ -3809,7 +3841,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B80" s="10">
         <v>1</v>
@@ -3844,7 +3876,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B81" s="10">
         <v>1</v>
@@ -3879,7 +3911,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B82" s="10">
         <v>1</v>
@@ -3914,7 +3946,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B83" s="10">
         <v>1</v>
@@ -3949,7 +3981,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B84" s="10">
         <v>1</v>
@@ -3984,7 +4016,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B85" s="10">
         <v>1</v>
@@ -4019,7 +4051,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B86" s="10">
         <v>1</v>
@@ -4054,7 +4086,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B87" s="10">
         <v>1</v>
@@ -4089,7 +4121,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B88" s="10">
         <v>1</v>
@@ -4124,7 +4156,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B89" s="10">
         <v>1</v>
@@ -4159,7 +4191,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B90" s="10">
         <v>1</v>
@@ -4194,7 +4226,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B91" s="10">
         <v>1</v>
@@ -4229,7 +4261,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B92" s="10">
         <v>1</v>
@@ -4264,7 +4296,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B93" s="10">
         <v>1</v>
@@ -4299,7 +4331,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B94" s="10">
         <v>1</v>
@@ -4334,7 +4366,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B95" s="10">
         <v>1</v>
@@ -4369,7 +4401,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B96" s="10">
         <v>1</v>
@@ -4404,7 +4436,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B97" s="10">
         <v>1</v>
@@ -4439,7 +4471,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B98" s="10">
         <v>1</v>
@@ -4474,7 +4506,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B99" s="10">
         <v>1</v>
@@ -4509,7 +4541,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B100" s="10">
         <v>1</v>
@@ -4544,7 +4576,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B101" s="10">
         <v>1</v>
@@ -4579,7 +4611,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B102" s="10">
         <v>1</v>
@@ -4597,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="G102" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H102" s="10">
         <v>1</v>
@@ -4614,7 +4646,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B103" s="10">
         <v>1</v>
@@ -4649,7 +4681,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B104" s="10">
         <v>1</v>
@@ -4684,7 +4716,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B105" s="10">
         <v>1</v>
@@ -4719,7 +4751,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="B106" s="10">
         <v>0</v>
@@ -4754,7 +4786,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B107" s="10">
         <v>1</v>
@@ -4789,7 +4821,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B108" s="10">
         <v>1</v>
@@ -4824,7 +4856,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B109" s="10">
         <v>0</v>
@@ -4859,7 +4891,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B110" s="10">
         <v>1</v>
@@ -4894,7 +4926,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B111" s="10">
         <v>1</v>
@@ -4929,7 +4961,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="B112" s="10">
         <v>1</v>
@@ -4964,7 +4996,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B113" s="10">
         <v>1</v>
@@ -4999,7 +5031,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B114" s="10">
         <v>0</v>
@@ -5034,7 +5066,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B115" s="10">
         <v>1</v>
@@ -5069,7 +5101,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B116" s="10">
         <v>1</v>
@@ -5104,7 +5136,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B117" s="10">
         <v>1</v>
@@ -5139,7 +5171,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="B118" s="10">
         <v>1</v>
@@ -5174,7 +5206,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="B119" s="10">
         <v>1</v>
@@ -5209,7 +5241,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B120" s="10">
         <v>1</v>
@@ -5244,7 +5276,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B121" s="10">
         <v>1</v>
@@ -5279,7 +5311,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B122" s="10">
         <v>1</v>
@@ -5314,7 +5346,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B123" s="10">
         <v>1</v>
@@ -5349,7 +5381,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B124" s="10">
         <v>1</v>
@@ -5384,7 +5416,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B125" s="10">
         <v>1</v>
@@ -5419,7 +5451,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B126" s="10">
         <v>1</v>
@@ -5454,7 +5486,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B127" s="10">
         <v>1</v>
@@ -5489,7 +5521,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="B128" s="10">
         <v>1</v>
@@ -5524,7 +5556,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B129" s="10">
         <v>1</v>
@@ -5559,7 +5591,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B130" s="10">
         <v>1</v>
@@ -5594,7 +5626,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B131" s="10">
         <v>1</v>
@@ -5629,7 +5661,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B132" s="10">
         <v>1</v>
@@ -5664,7 +5696,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B133" s="10">
         <v>0</v>
@@ -5699,7 +5731,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B134" s="10">
         <v>1</v>
@@ -5734,7 +5766,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B135" s="10">
         <v>0</v>
@@ -5769,7 +5801,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B136" s="10">
         <v>1</v>
@@ -5804,7 +5836,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B137" s="10">
         <v>1</v>
@@ -5839,7 +5871,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B138" s="10">
         <v>1</v>
@@ -5874,7 +5906,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B139" s="10">
         <v>1</v>
@@ -5909,7 +5941,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="B140" s="10">
         <v>0</v>
@@ -5944,7 +5976,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B141" s="10">
         <v>1</v>
@@ -5979,7 +6011,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B142" s="10">
         <v>1</v>
@@ -6014,7 +6046,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B143" s="10">
         <v>1</v>
@@ -6049,7 +6081,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B144" s="10">
         <v>1</v>
@@ -6084,7 +6116,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B145" s="10">
         <v>1</v>
@@ -6119,7 +6151,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B146" s="10">
         <v>1</v>
@@ -6154,7 +6186,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B147" s="10">
         <v>1</v>
@@ -6189,7 +6221,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B148" s="10">
         <v>1</v>
@@ -6224,7 +6256,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B149" s="10">
         <v>1</v>
@@ -6259,7 +6291,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B150" s="10">
         <v>1</v>
@@ -6294,7 +6326,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B151" s="10">
         <v>1</v>
@@ -6329,7 +6361,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B152" s="10">
         <v>1</v>
@@ -6364,7 +6396,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B153" s="10">
         <v>1</v>
@@ -6399,7 +6431,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B154" s="10">
         <v>1</v>
@@ -6434,7 +6466,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B155" s="10">
         <v>1</v>
@@ -6469,7 +6501,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B156" s="10">
         <v>1</v>
@@ -6504,7 +6536,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B157" s="10">
         <v>1</v>
@@ -6539,7 +6571,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B158" s="10">
         <v>1</v>
@@ -6572,7 +6604,204 @@
         <v>0</v>
       </c>
     </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B159" s="10">
+        <v>1</v>
+      </c>
+      <c r="C159" s="10">
+        <v>0</v>
+      </c>
+      <c r="D159" s="10">
+        <v>0</v>
+      </c>
+      <c r="E159" s="10">
+        <v>0</v>
+      </c>
+      <c r="F159" s="10">
+        <v>0</v>
+      </c>
+      <c r="G159" s="10">
+        <v>2</v>
+      </c>
+      <c r="H159" s="10">
+        <v>2</v>
+      </c>
+      <c r="I159" s="10">
+        <v>1</v>
+      </c>
+      <c r="J159" s="10">
+        <v>0</v>
+      </c>
+      <c r="K159" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>187</v>
+      </c>
+      <c r="B160" s="10">
+        <v>1</v>
+      </c>
+      <c r="C160" s="10">
+        <v>0</v>
+      </c>
+      <c r="D160" s="10">
+        <v>0</v>
+      </c>
+      <c r="E160" s="10">
+        <v>0</v>
+      </c>
+      <c r="F160" s="10">
+        <v>0</v>
+      </c>
+      <c r="G160" s="10">
+        <v>2</v>
+      </c>
+      <c r="H160" s="10">
+        <v>1</v>
+      </c>
+      <c r="I160" s="10">
+        <v>1</v>
+      </c>
+      <c r="J160" s="10">
+        <v>0</v>
+      </c>
+      <c r="K160" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>188</v>
+      </c>
+      <c r="B161" s="10">
+        <v>1</v>
+      </c>
+      <c r="C161" s="10">
+        <v>0</v>
+      </c>
+      <c r="D161" s="10">
+        <v>0</v>
+      </c>
+      <c r="E161" s="10">
+        <v>0</v>
+      </c>
+      <c r="F161" s="10">
+        <v>0</v>
+      </c>
+      <c r="G161" s="10">
+        <v>2</v>
+      </c>
+      <c r="H161" s="10">
+        <v>1</v>
+      </c>
+      <c r="I161" s="10">
+        <v>2</v>
+      </c>
+      <c r="J161" s="10">
+        <v>0</v>
+      </c>
+      <c r="K161" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>106</v>
+      </c>
+      <c r="B162" s="10">
+        <v>1</v>
+      </c>
+      <c r="C162" s="10">
+        <v>1</v>
+      </c>
+      <c r="D162" s="10">
+        <v>1</v>
+      </c>
+      <c r="E162" s="10">
+        <v>2</v>
+      </c>
+      <c r="F162" s="10">
+        <v>8</v>
+      </c>
+      <c r="G162" s="10">
+        <v>2</v>
+      </c>
+      <c r="H162" s="10">
+        <v>2</v>
+      </c>
+      <c r="I162" s="10">
+        <v>7</v>
+      </c>
+      <c r="J162" s="10">
+        <v>5</v>
+      </c>
+      <c r="K162" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B163" s="10">
+        <v>1</v>
+      </c>
+      <c r="C163" s="10">
+        <v>0</v>
+      </c>
+      <c r="D163" s="10">
+        <v>0</v>
+      </c>
+      <c r="E163" s="10">
+        <v>0</v>
+      </c>
+      <c r="F163" s="10">
+        <v>0</v>
+      </c>
+      <c r="G163" s="10">
+        <v>2</v>
+      </c>
+      <c r="H163" s="10">
+        <v>1</v>
+      </c>
+      <c r="I163" s="10">
+        <v>1</v>
+      </c>
+      <c r="J163" s="10">
+        <v>0</v>
+      </c>
+      <c r="K163" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A167" s="11"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A168" s="11"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:K163" xr:uid="{0021B665-99F9-A44C-95B2-71BFAB5F1BCE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6581,47 +6810,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8DC962-A38C-8345-8A21-DB9BC4017ADE}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B2" s="7">
         <v>529000</v>
@@ -6650,7 +6879,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B3" s="7">
         <v>529000</v>
@@ -6679,7 +6908,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B4" s="7">
         <v>529000</v>
@@ -6708,7 +6937,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B5" s="7">
         <v>240456</v>
@@ -6737,7 +6966,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B6" s="7">
         <v>360700</v>
@@ -6766,7 +6995,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B7" s="7">
         <v>529000</v>
@@ -6795,7 +7024,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B8" s="7">
         <v>240456</v>
@@ -6824,7 +7053,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B9" s="7">
         <v>529000</v>
@@ -6853,7 +7082,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B10" s="7">
         <v>529000</v>
@@ -6882,7 +7111,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B11" s="7">
         <v>529000</v>
